--- a/createtable/forecast.xlsx
+++ b/createtable/forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\stockdatamanage\createtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF69607-3EF2-4AF0-A87B-7F2BB42ACAF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C4A380-9973-4800-8D24-63B028FB8548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D5B7A143-251E-4028-B145-45CF5D14D650}"/>
+    <workbookView xWindow="4460" yWindow="3790" windowWidth="19200" windowHeight="10510" xr2:uid="{D5B7A143-251E-4028-B145-45CF5D14D650}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>名称</t>
   </si>
@@ -45,9 +45,6 @@
     <t>ts_code</t>
   </si>
   <si>
-    <t>str</t>
-  </si>
-  <si>
     <t>TS股票代码</t>
   </si>
   <si>
@@ -118,6 +115,22 @@
   </si>
   <si>
     <t>业绩变动原因</t>
+  </si>
+  <si>
+    <t>char(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -484,12 +497,12 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,136 +513,136 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
